--- a/data/trans_bre/P22_R4-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P22_R4-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2457820694466276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.50125261829581</v>
+        <v>2.501252618295807</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3120486035892175</v>
@@ -649,7 +649,7 @@
         <v>-0.02862049010587845</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1883284242237398</v>
+        <v>0.1883284242237395</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.387018412729089</v>
+        <v>-9.803574137042514</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.38741560853356</v>
+        <v>-10.29877851764806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.995949193954298</v>
+        <v>-4.94490320899506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.009960327409264</v>
+        <v>-2.313315051918708</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6142138216154713</v>
+        <v>-0.6186595197638752</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6233992026458142</v>
+        <v>-0.6035818381404046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4894141777872871</v>
+        <v>-0.4630968477192725</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1872936128695532</v>
+        <v>-0.1465242284440163</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.500325278474814</v>
+        <v>1.618398534154585</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4317304608053957</v>
+        <v>0.5780742048592592</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.610201233892345</v>
+        <v>5.280248468249236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.138503473057869</v>
+        <v>7.393611726885915</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1668273470982143</v>
+        <v>0.1609829192094631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06879915682997541</v>
+        <v>0.1250151686993361</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7343121288611077</v>
+        <v>0.8914065911759151</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6823706329937763</v>
+        <v>0.7120395166681469</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.694745962469412</v>
+        <v>-6.541291550375071</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.399990466653954</v>
+        <v>-5.282997723661042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3224627295061164</v>
+        <v>-0.2037660337954528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.638486326311607</v>
+        <v>-5.512240226633582</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5560972622302546</v>
+        <v>-0.5551174984151653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.398614326494065</v>
+        <v>-0.3884444196362709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1598708186978163</v>
+        <v>-0.1526003821291807</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4257593303082811</v>
+        <v>-0.4341137290041365</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8014802550210998</v>
+        <v>0.9428946151547821</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.783493399716353</v>
+        <v>3.493537053554816</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.357159152188612</v>
+        <v>4.652560861292376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.957546617238245</v>
+        <v>2.067566810543154</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1160644829272153</v>
+        <v>0.1218653970159486</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4725836740975176</v>
+        <v>0.4113213641162746</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.471533125730788</v>
+        <v>2.876778452894805</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2451097335885832</v>
+        <v>0.2607192787221166</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-4.163725313511605</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.4356926970935024</v>
+        <v>-0.4356926970934996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.398732094174828</v>
@@ -849,7 +849,7 @@
         <v>-0.5023305968228136</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.04470403982039158</v>
+        <v>-0.0447040398203913</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.093826615960081</v>
+        <v>-5.960613737576232</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.796554465332447</v>
+        <v>-5.594627878847364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.626815792022823</v>
+        <v>-7.981189162489495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.893509030900333</v>
+        <v>-4.689422182404695</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7190600355637703</v>
+        <v>-0.7397675908329558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5896653756997218</v>
+        <v>-0.5919303980096225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7293447123374062</v>
+        <v>-0.7716443924591072</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3943806287679379</v>
+        <v>-0.3879687440896635</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6412999585681679</v>
+        <v>0.8713386039831272</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.656561230011382</v>
+        <v>2.522111063506134</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.7315346759364438</v>
+        <v>-0.5706041714746906</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.631157567607551</v>
+        <v>3.494795853257352</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1710180410519648</v>
+        <v>0.2729150585641466</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5211743752086111</v>
+        <v>0.497474854760306</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.08295588398121508</v>
+        <v>-0.08375850940935801</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5316396297480633</v>
+        <v>0.4828350521408688</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.7351696671086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.135329184752952</v>
+        <v>-6.135329184752941</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.09935039579790082</v>
@@ -949,7 +949,7 @@
         <v>-0.2256856581031781</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.32573840475307</v>
+        <v>-0.3257384047530696</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.633542040365218</v>
+        <v>-4.666240897275888</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.47300688236615</v>
+        <v>-5.591470077392844</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.54299085588713</v>
+        <v>-7.655429673608781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-12.29187793415262</v>
+        <v>-12.24548098049259</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4594123320767747</v>
+        <v>-0.446681185619554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.43755725903913</v>
+        <v>-0.4709813988253125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.514755195347658</v>
+        <v>-0.5333699457841236</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5444757036206778</v>
+        <v>-0.5276124590763608</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.13269561535869</v>
+        <v>3.77795033100522</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.171426047098379</v>
+        <v>3.219858991198001</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.176539460223717</v>
+        <v>2.312988537932079</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.7040611395311631</v>
+        <v>-0.707421334996631</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4786679616081747</v>
+        <v>0.6362100630593434</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4298073038165512</v>
+        <v>0.4462905395622623</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2551703292622367</v>
+        <v>0.2516154811752103</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.04378115340806363</v>
+        <v>-0.038221635917542</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-3.613454185446331</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.4214721125726822</v>
+        <v>-0.4214721125726795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02932359200612739</v>
@@ -1049,7 +1049,7 @@
         <v>-0.6859147154235407</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.04299004700855998</v>
+        <v>-0.0429900470085597</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.333780065730449</v>
+        <v>-7.906149059038768</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.120128971884271</v>
+        <v>-6.970243228208109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.986226623833412</v>
+        <v>-7.869649950937991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.429969103587055</v>
+        <v>-4.922060082620574</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3000956884158349</v>
+        <v>-0.3145174297101033</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5104802047516968</v>
+        <v>-0.5050627509853554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.9278383607409216</v>
+        <v>-0.9273679454529363</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3744172230884142</v>
+        <v>-0.3888293963074837</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.605759628821675</v>
+        <v>8.12254549277726</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.422195516206989</v>
+        <v>4.309596340392567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.2723792205690559</v>
+        <v>0.05402056268943731</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.391296514608191</v>
+        <v>3.634362155352933</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4992204246568793</v>
+        <v>0.4726674390172889</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5887737910664645</v>
+        <v>0.5650024067844788</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.134995235921407</v>
+        <v>0.3623482187246021</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4820434703647768</v>
+        <v>0.5183313128269071</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-3.776524664569868</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8359100868916545</v>
+        <v>0.8359100868916475</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3773403316973863</v>
@@ -1149,7 +1149,7 @@
         <v>-0.5293480795455542</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.08758603883116799</v>
+        <v>0.08758603883116724</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.048565807169946</v>
+        <v>-6.632851147296742</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-9.563058684466681</v>
+        <v>-9.450142602799691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.903983238477751</v>
+        <v>-8.172528630061485</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.241401496484829</v>
+        <v>-3.19112317331002</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7356424824047695</v>
+        <v>-0.6897925481485644</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8152256430403986</v>
+        <v>-0.8373126279401869</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7975474709364507</v>
+        <v>-0.8138899429063035</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2883077211454754</v>
+        <v>-0.2822163296310153</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.168647505154351</v>
+        <v>0.7772179679595245</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.6721339497816318</v>
+        <v>-0.9275188400602095</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2613526523870988</v>
+        <v>-0.1593459907227624</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.112501677640375</v>
+        <v>4.808127638619113</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2841207674696004</v>
+        <v>0.2630162672296713</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.04506316533627112</v>
+        <v>-0.09756131900603338</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1830732288991825</v>
+        <v>0.02252408114279032</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6940011980136236</v>
+        <v>0.6754376716579582</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.8619189843683317</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3077593926285815</v>
+        <v>0.3077593926285788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2617316609881958</v>
@@ -1249,7 +1249,7 @@
         <v>-0.08027079136700545</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01301374658035069</v>
+        <v>0.01301374658035057</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.302893060433473</v>
+        <v>-1.45525101642453</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.186683982590126</v>
+        <v>-4.217673847775774</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.11055467074685</v>
+        <v>-4.360985148557297</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.706780148134428</v>
+        <v>-5.152991715454728</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1633408038429487</v>
+        <v>-0.1776288620193834</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4473622117125127</v>
+        <v>-0.4544687843428923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.323210102431491</v>
+        <v>-0.3453045584323249</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1792537548737686</v>
+        <v>-0.1895171883821676</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.866828891015036</v>
+        <v>4.673741490192743</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.655295499367825</v>
+        <v>1.953774359840883</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.451629901864702</v>
+        <v>2.299556124136771</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.985189797683843</v>
+        <v>4.957183471570105</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8529383840180931</v>
+        <v>0.9389002680137529</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2752672152961777</v>
+        <v>0.36762724669089</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2874387929934732</v>
+        <v>0.2697351180286298</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2338465921693114</v>
+        <v>0.241384363031551</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.59528331824867</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.443229291339515</v>
+        <v>1.443229291339516</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.03508037269526049</v>
@@ -1349,7 +1349,7 @@
         <v>0.293303377600825</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1848313290851351</v>
+        <v>0.1848313290851352</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.809455262762619</v>
+        <v>-3.892542915213999</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.536576215068707</v>
+        <v>-3.664398379426907</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.7575844029896611</v>
+        <v>-0.7169122442803145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.508861206530989</v>
+        <v>-1.444817070946377</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.228398270969421</v>
+        <v>-0.2329818861239763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3512985538025047</v>
+        <v>-0.3623232943535273</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07652639835546272</v>
+        <v>-0.07042991946277763</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1592331251968686</v>
+        <v>-0.1471280480027914</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.545512400318033</v>
+        <v>3.057032316041987</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.390625370736373</v>
+        <v>2.420604890606849</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.520447171996488</v>
+        <v>5.856135889051676</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.974229563847747</v>
+        <v>4.026955074843684</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2751265041316392</v>
+        <v>0.2447093369619613</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3397828443595103</v>
+        <v>0.3590408276664351</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7351730025297407</v>
+        <v>0.8017707162743349</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5994544078282701</v>
+        <v>0.6307800883369956</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-0.4714053434878601</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-0.2559672228847898</v>
+        <v>-0.255967222884787</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.1007976217786726</v>
@@ -1449,7 +1449,7 @@
         <v>-0.05735587505247695</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.01899291917240855</v>
+        <v>-0.01899291917240835</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.685821599022457</v>
+        <v>-2.648075752845105</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.909065965418686</v>
+        <v>-3.158942684689058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.870528432414297</v>
+        <v>-1.761543102602418</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.002197483404435</v>
+        <v>-1.858869399143254</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2335969804748669</v>
+        <v>-0.232839396715865</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2973082068946522</v>
+        <v>-0.3191003353343493</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2136966700470298</v>
+        <v>-0.1971702483370277</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1365635832921617</v>
+        <v>-0.128261730396977</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5343026149195953</v>
+        <v>0.4056656272892926</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1249365420969162</v>
+        <v>-0.2711886871583891</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8727920755731972</v>
+        <v>0.9662576258435297</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.25985986716167</v>
+        <v>1.313717718660414</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05577678704253798</v>
+        <v>0.04313493184459179</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.01740307417662025</v>
+        <v>-0.0325546018215625</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1174120894125801</v>
+        <v>0.1356633525861647</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.1009200871325264</v>
+        <v>0.1051463817628575</v>
       </c>
     </row>
     <row r="31">
